--- a/SW1.xlsx
+++ b/SW1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12936" uniqueCount="3414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14548" uniqueCount="3825">
   <si>
     <t>dInstal</t>
   </si>
@@ -10254,6 +10254,1239 @@
   </si>
   <si>
     <t>2023-06-30 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 02:00:00</t>
+  </si>
+  <si>
+    <t>2023-07-01 03:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 17:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-01 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 01:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 03:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00:00</t>
+  </si>
+  <si>
+    <t>2023-07-02 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 12:00:24</t>
+  </si>
+  <si>
+    <t>2023-07-03 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-03 16:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 07:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 08:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 10:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 16:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00:00</t>
+  </si>
+  <si>
+    <t>2023-07-04 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-04 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 04:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 06:00:31</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 08:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 21:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-05 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 04:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 06:00:59</t>
+  </si>
+  <si>
+    <t>2023-07-06 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 10:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 12:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 14:00:46</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 16:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-06 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 23:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-07 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-08 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-08 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-08 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-08 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 08:00:01</t>
+  </si>
+  <si>
+    <t>14.92</t>
+  </si>
+  <si>
+    <t>2023-07-09 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-10 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 16:00:03</t>
+  </si>
+  <si>
+    <t>14.86</t>
+  </si>
+  <si>
+    <t>2023-07-10 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 01:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-11 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-11 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-11 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-11 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 14:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-11 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-11 21:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-11 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 03:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-12 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 08:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-12 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 17:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-12 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 02:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-13 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 19:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-13 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 23:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-14 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-14 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-14 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-15 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-16 07:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-16 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-16 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-16 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-17 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 15:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 21:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-17 23:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 01:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 03:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-18 13:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 15:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 17:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-18 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-18 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 05:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-20 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-20 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-21 15:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-21 17:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-21 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-21 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 03:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-22 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-22 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-22 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 17:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-22 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 01:00:03</t>
+  </si>
+  <si>
+    <t>15.35</t>
+  </si>
+  <si>
+    <t>2023-07-23 03:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-23 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 08:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-23 11:00:02</t>
+  </si>
+  <si>
+    <t>15.33</t>
+  </si>
+  <si>
+    <t>2023-07-23 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 15:00:02</t>
+  </si>
+  <si>
+    <t>15.41</t>
+  </si>
+  <si>
+    <t>2023-07-23 18:00:02</t>
+  </si>
+  <si>
+    <t>15.39</t>
+  </si>
+  <si>
+    <t>2023-07-23 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 23:00:03</t>
+  </si>
+  <si>
+    <t>15.37</t>
+  </si>
+  <si>
+    <t>2023-07-24 03:00:04</t>
+  </si>
+  <si>
+    <t>15.36</t>
+  </si>
+  <si>
+    <t>2023-07-24 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-24 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-24 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-24 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-24 16:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-24 18:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-24 21:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-24 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 06:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-25 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-25 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-25 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-26 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-26 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-26 09:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-26 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-26 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-26 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-26 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-27 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-27 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 01:00:42</t>
+  </si>
+  <si>
+    <t>2023-07-28 04:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-28 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 11:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-28 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-28 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-29 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-29 06:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-29 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-29 19:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-29 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-30 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-30 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 06:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-30 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-30 17:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-30 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-30 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-31 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-31 04:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-31 06:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-31 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 15:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-31 17:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-31 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 13:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-01 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-02 00:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-02 02:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-02 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 14:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-03 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-05 04:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-05 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 11:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-05 17:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-05 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-05 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 03:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-06 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 10:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-06 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 15:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 17:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-06 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 01:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-07 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 14:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-07 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 20:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-07 22:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-08 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-08 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-08 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 19:00:01</t>
+  </si>
+  <si>
+    <t>2023-08-08 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 23:00:02</t>
   </si>
 </sst>
 </file>
@@ -10298,7 +11531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3234"/>
+  <dimension ref="A1:D3637"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -55580,6 +56813,5648 @@
         <v>3372</v>
       </c>
     </row>
+    <row r="3235">
+      <c r="A3235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3235" t="s">
+        <v>3414</v>
+      </c>
+      <c r="C3235" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3235" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3236">
+      <c r="A3236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3236" t="s">
+        <v>3415</v>
+      </c>
+      <c r="C3236" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3236" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3237">
+      <c r="A3237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3237" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C3237" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3237" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3238">
+      <c r="A3238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3238" t="s">
+        <v>3417</v>
+      </c>
+      <c r="C3238" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3238" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3239">
+      <c r="A3239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3239" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C3239" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3239" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3240">
+      <c r="A3240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3240" t="s">
+        <v>3419</v>
+      </c>
+      <c r="C3240" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3240" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3241">
+      <c r="A3241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3241" t="s">
+        <v>3420</v>
+      </c>
+      <c r="C3241" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3241" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3242">
+      <c r="A3242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3242" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C3242" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3242" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3243">
+      <c r="A3243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3243" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C3243" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3243" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3244">
+      <c r="A3244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3244" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C3244" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3244" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3245">
+      <c r="A3245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3245" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C3245" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3245" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3246">
+      <c r="A3246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3246" t="s">
+        <v>3425</v>
+      </c>
+      <c r="C3246" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3246" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3247">
+      <c r="A3247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3247" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C3247" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3247" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3248">
+      <c r="A3248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3248" t="s">
+        <v>3427</v>
+      </c>
+      <c r="C3248" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3248" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3249">
+      <c r="A3249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3249" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C3249" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3249" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3250">
+      <c r="A3250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3250" t="s">
+        <v>3429</v>
+      </c>
+      <c r="C3250" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3250" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3251">
+      <c r="A3251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3251" t="s">
+        <v>3430</v>
+      </c>
+      <c r="C3251" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3251" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3252">
+      <c r="A3252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3252" t="s">
+        <v>3431</v>
+      </c>
+      <c r="C3252" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3252" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3253" t="s">
+        <v>3432</v>
+      </c>
+      <c r="C3253" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3253" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3254" t="s">
+        <v>3433</v>
+      </c>
+      <c r="C3254" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3254" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3255" t="s">
+        <v>3434</v>
+      </c>
+      <c r="C3255" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3255" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3256" t="s">
+        <v>3435</v>
+      </c>
+      <c r="C3256" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3256" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3257" t="s">
+        <v>3436</v>
+      </c>
+      <c r="C3257" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3257" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3258" t="s">
+        <v>3437</v>
+      </c>
+      <c r="C3258" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3258" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3259" t="s">
+        <v>3438</v>
+      </c>
+      <c r="C3259" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3259" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3260" t="s">
+        <v>3439</v>
+      </c>
+      <c r="C3260" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3260" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3261" t="s">
+        <v>3440</v>
+      </c>
+      <c r="C3261" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3261" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3262" t="s">
+        <v>3441</v>
+      </c>
+      <c r="C3262" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3262" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3263" t="s">
+        <v>3442</v>
+      </c>
+      <c r="C3263" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3263" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3264" t="s">
+        <v>3443</v>
+      </c>
+      <c r="C3264" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3264" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3265" t="s">
+        <v>3444</v>
+      </c>
+      <c r="C3265" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3265" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3266" t="s">
+        <v>3445</v>
+      </c>
+      <c r="C3266" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3266" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3267" t="s">
+        <v>3446</v>
+      </c>
+      <c r="C3267" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3267" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3268" t="s">
+        <v>3447</v>
+      </c>
+      <c r="C3268" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3268" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3269" t="s">
+        <v>3448</v>
+      </c>
+      <c r="C3269" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3269" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3270" t="s">
+        <v>3449</v>
+      </c>
+      <c r="C3270" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3270" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3271" t="s">
+        <v>3450</v>
+      </c>
+      <c r="C3271" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3271" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3272" t="s">
+        <v>3451</v>
+      </c>
+      <c r="C3272" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3272" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3273" t="s">
+        <v>3452</v>
+      </c>
+      <c r="C3273" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3273" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3274" t="s">
+        <v>3453</v>
+      </c>
+      <c r="C3274" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3274" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3275" t="s">
+        <v>3454</v>
+      </c>
+      <c r="C3275" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3275" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3276" t="s">
+        <v>3455</v>
+      </c>
+      <c r="C3276" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3276" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3277" t="s">
+        <v>3456</v>
+      </c>
+      <c r="C3277" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3277" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3278" t="s">
+        <v>3457</v>
+      </c>
+      <c r="C3278" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3278" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3279" t="s">
+        <v>3458</v>
+      </c>
+      <c r="C3279" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3279" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3280" t="s">
+        <v>3459</v>
+      </c>
+      <c r="C3280" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3280" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3281" t="s">
+        <v>3460</v>
+      </c>
+      <c r="C3281" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3281" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3282" t="s">
+        <v>3461</v>
+      </c>
+      <c r="C3282" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3282" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3283" t="s">
+        <v>3462</v>
+      </c>
+      <c r="C3283" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3283" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3284" t="s">
+        <v>3463</v>
+      </c>
+      <c r="C3284" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3284" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3285" t="s">
+        <v>3464</v>
+      </c>
+      <c r="C3285" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3285" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3286" t="s">
+        <v>3465</v>
+      </c>
+      <c r="C3286" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3286" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3287" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C3287" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3287" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3288" t="s">
+        <v>3467</v>
+      </c>
+      <c r="C3288" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3288" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3289" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C3289" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3289" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3290" t="s">
+        <v>3469</v>
+      </c>
+      <c r="C3290" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3290" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3291" t="s">
+        <v>3470</v>
+      </c>
+      <c r="C3291" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3291" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3292" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C3292" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3292" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3293" t="s">
+        <v>3472</v>
+      </c>
+      <c r="C3293" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3293" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3294" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C3294" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3294" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3295" t="s">
+        <v>3474</v>
+      </c>
+      <c r="C3295" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3295" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3296" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C3296" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3296" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3297" t="s">
+        <v>3476</v>
+      </c>
+      <c r="C3297" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3297" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3298" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C3298" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3298" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3299" t="s">
+        <v>3478</v>
+      </c>
+      <c r="C3299" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3299" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3300" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C3300" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3300" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3301" t="s">
+        <v>3480</v>
+      </c>
+      <c r="C3301" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3301" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3302" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C3302" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3302" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3303" t="s">
+        <v>3482</v>
+      </c>
+      <c r="C3303" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3303" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3304" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C3304" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3304" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3305" t="s">
+        <v>3484</v>
+      </c>
+      <c r="C3305" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3305" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3306" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C3306" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3306" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3307" t="s">
+        <v>3486</v>
+      </c>
+      <c r="C3307" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3307" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3308" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C3308" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3308" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3309" t="s">
+        <v>3488</v>
+      </c>
+      <c r="C3309" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3309" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3310" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C3310" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3310" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3311" t="s">
+        <v>3490</v>
+      </c>
+      <c r="C3311" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3311" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3312" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C3312" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3312" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3313" t="s">
+        <v>3492</v>
+      </c>
+      <c r="C3313" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3313" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3314" t="s">
+        <v>3493</v>
+      </c>
+      <c r="C3314" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3314" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3315" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C3315" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3315" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3316" t="s">
+        <v>3495</v>
+      </c>
+      <c r="C3316" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3316" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3317" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C3317" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3317" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3318" t="s">
+        <v>3497</v>
+      </c>
+      <c r="C3318" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3318" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3319" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C3319" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3319" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3320" t="s">
+        <v>3499</v>
+      </c>
+      <c r="C3320" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3320" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3321" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C3321" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3321" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3322" t="s">
+        <v>3501</v>
+      </c>
+      <c r="C3322" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3322" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3323" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C3323" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3323" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3324" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C3324" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3324" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3325" t="s">
+        <v>3504</v>
+      </c>
+      <c r="C3325" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3325" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3326" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C3326" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3326" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3327" t="s">
+        <v>3506</v>
+      </c>
+      <c r="C3327" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3327" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3328" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C3328" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3328" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3329" t="s">
+        <v>3508</v>
+      </c>
+      <c r="C3329" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3329" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3330" t="s">
+        <v>3509</v>
+      </c>
+      <c r="C3330" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3330" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3331" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C3331" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3331" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3332" t="s">
+        <v>3511</v>
+      </c>
+      <c r="C3332" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3332" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3333" t="s">
+        <v>3512</v>
+      </c>
+      <c r="C3333" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3333" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3334" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C3334" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3334" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3335" t="s">
+        <v>3514</v>
+      </c>
+      <c r="C3335" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3335" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3336" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C3336" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3336" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3337" t="s">
+        <v>3516</v>
+      </c>
+      <c r="C3337" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3337" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3338" t="s">
+        <v>3517</v>
+      </c>
+      <c r="C3338" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3338" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3339" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C3339" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3339" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="3340">
+      <c r="A3340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3340" t="s">
+        <v>3519</v>
+      </c>
+      <c r="C3340" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3340" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="3341">
+      <c r="A3341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3341" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C3341" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3341" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3342">
+      <c r="A3342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3342" t="s">
+        <v>3521</v>
+      </c>
+      <c r="C3342" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3342" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3343">
+      <c r="A3343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3343" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C3343" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3343" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3344">
+      <c r="A3344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3344" t="s">
+        <v>3523</v>
+      </c>
+      <c r="C3344" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3344" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3345">
+      <c r="A3345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3345" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C3345" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3345" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3346">
+      <c r="A3346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3346" t="s">
+        <v>3525</v>
+      </c>
+      <c r="C3346" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3346" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3347">
+      <c r="A3347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3347" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C3347" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3347" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3348">
+      <c r="A3348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3348" t="s">
+        <v>3527</v>
+      </c>
+      <c r="C3348" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3348" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="3349">
+      <c r="A3349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3349" t="s">
+        <v>3528</v>
+      </c>
+      <c r="C3349" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3349" t="s">
+        <v>3275</v>
+      </c>
+    </row>
+    <row r="3350">
+      <c r="A3350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3350" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C3350" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3350" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3351">
+      <c r="A3351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3351" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C3351" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3351" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3352">
+      <c r="A3352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3352" t="s">
+        <v>3531</v>
+      </c>
+      <c r="C3352" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3352" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3353" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C3353" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3353" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3354" t="s">
+        <v>3533</v>
+      </c>
+      <c r="C3354" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3354" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3355" t="s">
+        <v>3534</v>
+      </c>
+      <c r="C3355" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3355" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3356" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C3356" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3356" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3357" t="s">
+        <v>3536</v>
+      </c>
+      <c r="C3357" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3357" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3358" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C3358" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3358" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3359" t="s">
+        <v>3538</v>
+      </c>
+      <c r="C3359" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3359" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3360" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C3360" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3360" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3361" t="s">
+        <v>3541</v>
+      </c>
+      <c r="C3361" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3361" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="3362">
+      <c r="A3362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3362" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C3362" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3362" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3363" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C3363" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3363" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3364" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C3364" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3364" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3365" t="s">
+        <v>3545</v>
+      </c>
+      <c r="C3365" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3365" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3366" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C3366" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3366" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3367" t="s">
+        <v>3547</v>
+      </c>
+      <c r="C3367" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3367" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3368" t="s">
+        <v>3548</v>
+      </c>
+      <c r="C3368" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3368" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3369" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C3369" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3369" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3370" t="s">
+        <v>3550</v>
+      </c>
+      <c r="C3370" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3370" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3371" t="s">
+        <v>3552</v>
+      </c>
+      <c r="C3371" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3371" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3372" t="s">
+        <v>3553</v>
+      </c>
+      <c r="C3372" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3372" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3373" t="s">
+        <v>3554</v>
+      </c>
+      <c r="C3373" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3373" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3374" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C3374" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3374" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3375" t="s">
+        <v>3556</v>
+      </c>
+      <c r="C3375" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3375" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3376" t="s">
+        <v>3557</v>
+      </c>
+      <c r="C3376" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3376" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3377" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C3377" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3377" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3378" t="s">
+        <v>3559</v>
+      </c>
+      <c r="C3378" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3378" t="s">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3379" t="s">
+        <v>3560</v>
+      </c>
+      <c r="C3379" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3379" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3380" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C3380" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3380" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3381" t="s">
+        <v>3562</v>
+      </c>
+      <c r="C3381" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3381" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3382" t="s">
+        <v>3563</v>
+      </c>
+      <c r="C3382" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3382" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3383" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C3383" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3383" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3384" t="s">
+        <v>3565</v>
+      </c>
+      <c r="C3384" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3384" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3385" t="s">
+        <v>3566</v>
+      </c>
+      <c r="C3385" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3385" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3386" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C3386" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3386" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3387" t="s">
+        <v>3568</v>
+      </c>
+      <c r="C3387" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3387" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3388" t="s">
+        <v>3569</v>
+      </c>
+      <c r="C3388" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3388" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3389" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C3389" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3389" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3390" t="s">
+        <v>3571</v>
+      </c>
+      <c r="C3390" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3390" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3391" t="s">
+        <v>3572</v>
+      </c>
+      <c r="C3391" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3391" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3392" t="s">
+        <v>3573</v>
+      </c>
+      <c r="C3392" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3392" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3393" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C3393" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3393" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3394" t="s">
+        <v>3575</v>
+      </c>
+      <c r="C3394" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3394" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3395" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C3395" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3395" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3396" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C3396" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3396" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3397" t="s">
+        <v>3578</v>
+      </c>
+      <c r="C3397" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3397" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3398" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C3398" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3398" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3399" t="s">
+        <v>3580</v>
+      </c>
+      <c r="C3399" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3399" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3400" t="s">
+        <v>3581</v>
+      </c>
+      <c r="C3400" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3400" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3401" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C3401" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3401" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3402" t="s">
+        <v>3583</v>
+      </c>
+      <c r="C3402" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3402" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3403" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C3403" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3403" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3404" t="s">
+        <v>3585</v>
+      </c>
+      <c r="C3404" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3404" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3405" t="s">
+        <v>3586</v>
+      </c>
+      <c r="C3405" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3405" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3406" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C3406" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3406" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3407" t="s">
+        <v>3588</v>
+      </c>
+      <c r="C3407" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3407" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3408" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C3408" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3408" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3409" t="s">
+        <v>3590</v>
+      </c>
+      <c r="C3409" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3409" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3410" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C3410" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3410" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3411" t="s">
+        <v>3592</v>
+      </c>
+      <c r="C3411" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3411" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3412" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C3412" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3412" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3413" t="s">
+        <v>3594</v>
+      </c>
+      <c r="C3413" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3413" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3414" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C3414" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3414" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3415" t="s">
+        <v>3596</v>
+      </c>
+      <c r="C3415" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3415" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3416" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C3416" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3416" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3417" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C3417" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3417" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3418" t="s">
+        <v>3599</v>
+      </c>
+      <c r="C3418" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3418" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3419" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C3419" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3419" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3420" t="s">
+        <v>3601</v>
+      </c>
+      <c r="C3420" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3420" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3421" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C3421" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3421" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3422" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C3422" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3422" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3423" t="s">
+        <v>3604</v>
+      </c>
+      <c r="C3423" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3423" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3424" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C3424" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3424" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3425" t="s">
+        <v>3606</v>
+      </c>
+      <c r="C3425" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3425" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3426" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C3426" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3426" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3427" t="s">
+        <v>3608</v>
+      </c>
+      <c r="C3427" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3427" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3428" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C3428" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3428" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3429" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C3429" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3429" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3430" t="s">
+        <v>3611</v>
+      </c>
+      <c r="C3430" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3430" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3431" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C3431" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3431" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3432" t="s">
+        <v>3613</v>
+      </c>
+      <c r="C3432" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3432" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3433" t="s">
+        <v>3614</v>
+      </c>
+      <c r="C3433" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3433" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3434" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C3434" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3434" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3435" t="s">
+        <v>3616</v>
+      </c>
+      <c r="C3435" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3435" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3436" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C3436" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3436" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3437" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C3437" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3437" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3438" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C3438" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3438" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3439" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C3439" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3439" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3440" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C3440" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3440" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3441" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C3441" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3441" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3442" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C3442" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3442" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3443" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C3443" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3443" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3444" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C3444" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3444" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3445" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C3445" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3445" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3446" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C3446" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3446" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3447" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C3447" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3447" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3448" t="s">
+        <v>3629</v>
+      </c>
+      <c r="C3448" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3448" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3449" t="s">
+        <v>3630</v>
+      </c>
+      <c r="C3449" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3449" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3450" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C3450" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3450" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3451" t="s">
+        <v>3632</v>
+      </c>
+      <c r="C3451" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3451" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3452" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C3452" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3452" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3453" t="s">
+        <v>3634</v>
+      </c>
+      <c r="C3453" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3453" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3454" t="s">
+        <v>3635</v>
+      </c>
+      <c r="C3454" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3454" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3455" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C3455" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3455" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3456" t="s">
+        <v>3637</v>
+      </c>
+      <c r="C3456" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3456" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3457" t="s">
+        <v>3638</v>
+      </c>
+      <c r="C3457" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3457" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3458" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C3458" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3458" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3459" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C3459" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3459" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3460" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C3460" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3460" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3461" t="s">
+        <v>3642</v>
+      </c>
+      <c r="C3461" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3461" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3462" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C3462" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3462" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3463" t="s">
+        <v>3644</v>
+      </c>
+      <c r="C3463" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3463" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3464" t="s">
+        <v>3645</v>
+      </c>
+      <c r="C3464" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3464" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3465" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C3465" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3465" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3466" t="s">
+        <v>3647</v>
+      </c>
+      <c r="C3466" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3466" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3467" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C3467" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3467" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3468" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C3468" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3468" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3469" t="s">
+        <v>3650</v>
+      </c>
+      <c r="C3469" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3469" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3470" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C3470" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3470" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3471" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C3471" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3471" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3472" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C3472" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3472" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3473" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C3473" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3473" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3474" t="s">
+        <v>3655</v>
+      </c>
+      <c r="C3474" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3474" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3475" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C3475" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3475" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3476" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C3476" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3476" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3477" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C3477" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3477" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3478" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C3478" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3478" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3479" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C3479" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3479" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3480" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C3480" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3480" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3481" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C3481" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3481" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3482" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C3482" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3482" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3483" t="s">
+        <v>3664</v>
+      </c>
+      <c r="C3483" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3483" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3484" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C3484" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3484" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3485">
+      <c r="A3485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3485" t="s">
+        <v>3667</v>
+      </c>
+      <c r="C3485" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3485" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3486">
+      <c r="A3486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3486" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C3486" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3486" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3487">
+      <c r="A3487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3487" t="s">
+        <v>3669</v>
+      </c>
+      <c r="C3487" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3487" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="3488">
+      <c r="A3488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3488" t="s">
+        <v>3670</v>
+      </c>
+      <c r="C3488" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3488" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="3489">
+      <c r="A3489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3489" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C3489" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3489" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="3490">
+      <c r="A3490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3490" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C3490" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3490" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="3491">
+      <c r="A3491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3491" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C3491" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3491" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="3492">
+      <c r="A3492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3492" t="s">
+        <v>3677</v>
+      </c>
+      <c r="C3492" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3492" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="3493">
+      <c r="A3493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3493" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C3493" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3493" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="3494">
+      <c r="A3494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3494" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C3494" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3494" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="3495">
+      <c r="A3495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3495" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C3495" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3495" t="s">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="3496">
+      <c r="A3496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3496" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C3496" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3496" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3497">
+      <c r="A3497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3497" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C3497" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3497" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="3498">
+      <c r="A3498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3498" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C3498" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3498" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3499">
+      <c r="A3499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3499" t="s">
+        <v>3686</v>
+      </c>
+      <c r="C3499" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3499" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3500">
+      <c r="A3500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3500" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C3500" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3500" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="3501">
+      <c r="A3501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3501" t="s">
+        <v>3688</v>
+      </c>
+      <c r="C3501" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3501" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="3502">
+      <c r="A3502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3502" t="s">
+        <v>3689</v>
+      </c>
+      <c r="C3502" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3502" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="3503">
+      <c r="A3503" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3503" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C3503" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3503" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3504">
+      <c r="A3504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3504" t="s">
+        <v>3691</v>
+      </c>
+      <c r="C3504" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3504" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3505" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C3505" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3505" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3506" t="s">
+        <v>3693</v>
+      </c>
+      <c r="C3506" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3506" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3507">
+      <c r="A3507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3507" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C3507" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3507" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3508" t="s">
+        <v>3695</v>
+      </c>
+      <c r="C3508" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3508" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3509" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C3509" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3509" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="3510">
+      <c r="A3510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3510" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C3510" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3510" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3511">
+      <c r="A3511" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3511" t="s">
+        <v>3698</v>
+      </c>
+      <c r="C3511" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3511" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3512">
+      <c r="A3512" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3512" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C3512" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3512" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3513" t="s">
+        <v>3700</v>
+      </c>
+      <c r="C3513" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3513" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3514" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C3514" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3514" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3515" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C3515" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3515" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3516" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C3516" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3516" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3517" t="s">
+        <v>3704</v>
+      </c>
+      <c r="C3517" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3517" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3518" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C3518" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3518" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3519" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C3519" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3519" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3520" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C3520" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3520" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3521" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C3521" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3521" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3522">
+      <c r="A3522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3522" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C3522" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3522" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3523" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C3523" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3523" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3524" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C3524" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3524" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3525">
+      <c r="A3525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3525" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C3525" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3525" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3526" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C3526" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3526" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3527" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C3527" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3527" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3528" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C3528" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3528" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3529" t="s">
+        <v>3716</v>
+      </c>
+      <c r="C3529" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3529" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3530" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C3530" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3530" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3531" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C3531" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3531" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3532" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C3532" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3532" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3533" t="s">
+        <v>3720</v>
+      </c>
+      <c r="C3533" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3533" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3534" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C3534" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3534" t="s">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3535" t="s">
+        <v>3722</v>
+      </c>
+      <c r="C3535" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3535" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3536" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C3536" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3536" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3537" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C3537" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3537" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3538" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C3538" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3538" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3539" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C3539" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3539" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3540" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C3540" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3540" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3541">
+      <c r="A3541" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3541" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C3541" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3541" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3542" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C3542" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3542" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3543">
+      <c r="A3543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3543" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C3543" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3543" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3544">
+      <c r="A3544" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3544" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C3544" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3544" t="s">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3545">
+      <c r="A3545" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3545" t="s">
+        <v>3732</v>
+      </c>
+      <c r="C3545" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3545" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3546">
+      <c r="A3546" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3546" t="s">
+        <v>3733</v>
+      </c>
+      <c r="C3546" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3546" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3547">
+      <c r="A3547" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3547" t="s">
+        <v>3734</v>
+      </c>
+      <c r="C3547" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3547" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3548">
+      <c r="A3548" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3548" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C3548" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3548" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="3549">
+      <c r="A3549" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3549" t="s">
+        <v>3736</v>
+      </c>
+      <c r="C3549" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3549" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3550">
+      <c r="A3550" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3550" t="s">
+        <v>3737</v>
+      </c>
+      <c r="C3550" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3550" t="s">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="3551">
+      <c r="A3551" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3551" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C3551" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3551" t="s">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3552" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C3552" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3552" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3553" t="s">
+        <v>3740</v>
+      </c>
+      <c r="C3553" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3553" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3554" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C3554" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3554" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3555" t="s">
+        <v>3742</v>
+      </c>
+      <c r="C3555" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3555" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3556" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C3556" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3556" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3557" t="s">
+        <v>3744</v>
+      </c>
+      <c r="C3557" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3557" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3558">
+      <c r="A3558" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3558" t="s">
+        <v>3745</v>
+      </c>
+      <c r="C3558" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3558" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3559">
+      <c r="A3559" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3559" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C3559" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3559" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3560">
+      <c r="A3560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3560" t="s">
+        <v>3747</v>
+      </c>
+      <c r="C3560" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3560" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3561">
+      <c r="A3561" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3561" t="s">
+        <v>3748</v>
+      </c>
+      <c r="C3561" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3561" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3562">
+      <c r="A3562" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3562" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C3562" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3562" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3563">
+      <c r="A3563" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3563" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C3563" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3563" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3564">
+      <c r="A3564" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3564" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C3564" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3564" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3565">
+      <c r="A3565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3565" t="s">
+        <v>3752</v>
+      </c>
+      <c r="C3565" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3565" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3566">
+      <c r="A3566" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3566" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C3566" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3566" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3567">
+      <c r="A3567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3567" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C3567" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3567" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3568">
+      <c r="A3568" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3568" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C3568" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3568" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3569">
+      <c r="A3569" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3569" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C3569" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3569" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3570">
+      <c r="A3570" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3570" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C3570" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3570" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3571">
+      <c r="A3571" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3571" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C3571" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3571" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3572">
+      <c r="A3572" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3572" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C3572" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3572" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3573">
+      <c r="A3573" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3573" t="s">
+        <v>3760</v>
+      </c>
+      <c r="C3573" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3573" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3574">
+      <c r="A3574" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3574" t="s">
+        <v>3761</v>
+      </c>
+      <c r="C3574" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3574" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3575">
+      <c r="A3575" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3575" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C3575" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3575" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3576">
+      <c r="A3576" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3576" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C3576" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3576" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="3577">
+      <c r="A3577" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3577" t="s">
+        <v>3764</v>
+      </c>
+      <c r="C3577" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3577" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3578">
+      <c r="A3578" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3578" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C3578" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3578" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="3579">
+      <c r="A3579" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3579" t="s">
+        <v>3766</v>
+      </c>
+      <c r="C3579" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3579" t="s">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="3580">
+      <c r="A3580" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3580" t="s">
+        <v>3767</v>
+      </c>
+      <c r="C3580" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3580" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="3581">
+      <c r="A3581" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3581" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C3581" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3581" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3582">
+      <c r="A3582" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3582" t="s">
+        <v>3769</v>
+      </c>
+      <c r="C3582" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3582" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3583">
+      <c r="A3583" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3583" t="s">
+        <v>3770</v>
+      </c>
+      <c r="C3583" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3583" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3584">
+      <c r="A3584" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3584" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C3584" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3584" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3585">
+      <c r="A3585" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3585" t="s">
+        <v>3772</v>
+      </c>
+      <c r="C3585" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3585" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3586">
+      <c r="A3586" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3586" t="s">
+        <v>3773</v>
+      </c>
+      <c r="C3586" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3586" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3587">
+      <c r="A3587" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3587" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C3587" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3587" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="3588">
+      <c r="A3588" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3588" t="s">
+        <v>3775</v>
+      </c>
+      <c r="C3588" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3588" t="s">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="3589">
+      <c r="A3589" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3589" t="s">
+        <v>3776</v>
+      </c>
+      <c r="C3589" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3589" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="3590">
+      <c r="A3590" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3590" t="s">
+        <v>3777</v>
+      </c>
+      <c r="C3590" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3590" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="3591">
+      <c r="A3591" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3591" t="s">
+        <v>3778</v>
+      </c>
+      <c r="C3591" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3591" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3592">
+      <c r="A3592" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3592" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C3592" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3592" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3593">
+      <c r="A3593" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3593" t="s">
+        <v>3780</v>
+      </c>
+      <c r="C3593" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3593" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3594">
+      <c r="A3594" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3594" t="s">
+        <v>3781</v>
+      </c>
+      <c r="C3594" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3594" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3595">
+      <c r="A3595" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3595" t="s">
+        <v>3782</v>
+      </c>
+      <c r="C3595" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3595" t="s">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="3596">
+      <c r="A3596" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3596" t="s">
+        <v>3783</v>
+      </c>
+      <c r="C3596" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3596" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3597">
+      <c r="A3597" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3597" t="s">
+        <v>3784</v>
+      </c>
+      <c r="C3597" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3597" t="s">
+        <v>3281</v>
+      </c>
+    </row>
+    <row r="3598">
+      <c r="A3598" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3598" t="s">
+        <v>3785</v>
+      </c>
+      <c r="C3598" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3598" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3599">
+      <c r="A3599" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3599" t="s">
+        <v>3786</v>
+      </c>
+      <c r="C3599" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3599" t="s">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="3600">
+      <c r="A3600" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3600" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C3600" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3600" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3601">
+      <c r="A3601" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3601" t="s">
+        <v>3788</v>
+      </c>
+      <c r="C3601" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3601" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3602">
+      <c r="A3602" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3602" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C3602" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3602" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3603">
+      <c r="A3603" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3603" t="s">
+        <v>3790</v>
+      </c>
+      <c r="C3603" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3603" t="s">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="3604">
+      <c r="A3604" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3604" t="s">
+        <v>3791</v>
+      </c>
+      <c r="C3604" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3604" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3605">
+      <c r="A3605" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3605" t="s">
+        <v>3792</v>
+      </c>
+      <c r="C3605" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3605" t="s">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="3606">
+      <c r="A3606" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3606" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C3606" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3606" t="s">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="3607">
+      <c r="A3607" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3607" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C3607" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3607" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3608">
+      <c r="A3608" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3608" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C3608" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3608" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3609">
+      <c r="A3609" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3609" t="s">
+        <v>3796</v>
+      </c>
+      <c r="C3609" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3609" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3610">
+      <c r="A3610" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3610" t="s">
+        <v>3797</v>
+      </c>
+      <c r="C3610" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3610" t="s">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="3611">
+      <c r="A3611" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3611" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C3611" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3611" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3612">
+      <c r="A3612" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3612" t="s">
+        <v>3799</v>
+      </c>
+      <c r="C3612" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3612" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3613">
+      <c r="A3613" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3613" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C3613" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3613" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="3614">
+      <c r="A3614" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3614" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C3614" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3614" t="s">
+        <v>3386</v>
+      </c>
+    </row>
+    <row r="3615">
+      <c r="A3615" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3615" t="s">
+        <v>3802</v>
+      </c>
+      <c r="C3615" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3615" t="s">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="3616">
+      <c r="A3616" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3616" t="s">
+        <v>3803</v>
+      </c>
+      <c r="C3616" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3616" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="3617">
+      <c r="A3617" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3617" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C3617" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3617" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3618">
+      <c r="A3618" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3618" t="s">
+        <v>3805</v>
+      </c>
+      <c r="C3618" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3618" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3619">
+      <c r="A3619" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3619" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C3619" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3619" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="3620">
+      <c r="A3620" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3620" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C3620" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3620" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3621">
+      <c r="A3621" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3621" t="s">
+        <v>3808</v>
+      </c>
+      <c r="C3621" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3621" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3622">
+      <c r="A3622" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3622" t="s">
+        <v>3809</v>
+      </c>
+      <c r="C3622" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3622" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3623">
+      <c r="A3623" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3623" t="s">
+        <v>3810</v>
+      </c>
+      <c r="C3623" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3623" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="3624">
+      <c r="A3624" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3624" t="s">
+        <v>3811</v>
+      </c>
+      <c r="C3624" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3624" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3625">
+      <c r="A3625" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3625" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C3625" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3625" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="3626">
+      <c r="A3626" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3626" t="s">
+        <v>3813</v>
+      </c>
+      <c r="C3626" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3626" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="3627">
+      <c r="A3627" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3627" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C3627" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3627" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="3628">
+      <c r="A3628" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3628" t="s">
+        <v>3815</v>
+      </c>
+      <c r="C3628" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3628" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3629">
+      <c r="A3629" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3629" t="s">
+        <v>3816</v>
+      </c>
+      <c r="C3629" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3629" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3630">
+      <c r="A3630" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3630" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C3630" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3630" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3631">
+      <c r="A3631" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3631" t="s">
+        <v>3818</v>
+      </c>
+      <c r="C3631" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3631" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3632">
+      <c r="A3632" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3632" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C3632" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3632" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3633">
+      <c r="A3633" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3633" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C3633" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3633" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3634">
+      <c r="A3634" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3634" t="s">
+        <v>3821</v>
+      </c>
+      <c r="C3634" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3634" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="3635">
+      <c r="A3635" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3635" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C3635" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3635" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="3636">
+      <c r="A3636" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3636" t="s">
+        <v>3823</v>
+      </c>
+      <c r="C3636" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3636" t="s">
+        <v>3273</v>
+      </c>
+    </row>
+    <row r="3637">
+      <c r="A3637" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3637" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C3637" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D3637" t="s">
+        <v>3033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
